--- a/config_6.8/task_server.xlsx
+++ b/config_6.8/task_server.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr codeName="ThisWorkbook"/>
   <bookViews>
-    <workbookView windowWidth="28125" windowHeight="12540"/>
+    <workbookView windowWidth="28125" windowHeight="12540" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="task" sheetId="2" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1355" uniqueCount="505">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1357" uniqueCount="505">
   <si>
     <t>id|任务id</t>
   </si>
@@ -2100,9 +2100,9 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="26">
     <font>
@@ -2151,21 +2151,6 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
       <color theme="1"/>
       <name val="等线"/>
       <charset val="0"/>
@@ -2173,15 +2158,7 @@
     </font>
     <font>
       <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
+      <sz val="13"/>
       <color theme="3"/>
       <name val="等线"/>
       <charset val="134"/>
@@ -2197,7 +2174,14 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF3F3F76"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -2205,22 +2189,14 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color theme="3"/>
       <name val="等线"/>
-      <charset val="0"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
+      <color rgb="FF9C0006"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -2236,6 +2212,30 @@
     <font>
       <b/>
       <sz val="11"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
       <color rgb="FF3F3F3F"/>
       <name val="等线"/>
       <charset val="0"/>
@@ -2243,9 +2243,17 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <color rgb="FFFF0000"/>
       <name val="等线"/>
       <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -2257,16 +2265,8 @@
     </font>
     <font>
       <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
       <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
+      <color rgb="FFFA7D00"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -2281,7 +2281,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF006100"/>
+      <color rgb="FF9C6500"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -2373,7 +2373,31 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2385,7 +2409,97 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6"/>
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2397,121 +2511,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2551,17 +2551,11 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -2592,11 +2586,17 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
       </bottom>
       <diagonal/>
     </border>
@@ -2619,8 +2619,8 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -2628,8 +2628,8 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -2654,10 +2654,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="15" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="19" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -2666,19 +2666,19 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -2687,109 +2687,109 @@
     <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="14" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="26" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="31" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="31" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="35" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="20" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="20" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="30" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -2797,7 +2797,7 @@
     </xf>
     <xf numFmtId="0" fontId="25" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="76">
+  <cellXfs count="75">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
@@ -2914,9 +2914,6 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="11" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="9" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -3336,8 +3333,8 @@
   <sheetPr codeName="Sheet1"/>
   <dimension ref="A1:U124"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="K1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A103" activePane="bottomLeft" state="frozen"/>
+    <sheetView topLeftCell="K1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A94" activePane="bottomLeft" state="frozen"/>
       <selection/>
       <selection pane="bottomLeft" activeCell="O122" sqref="O122"/>
     </sheetView>
@@ -3452,8 +3449,8 @@
       <c r="O2" s="14" t="s">
         <v>19</v>
       </c>
-      <c r="Q2" s="69"/>
-      <c r="R2" s="70"/>
+      <c r="Q2" s="68"/>
+      <c r="R2" s="69"/>
     </row>
     <row r="3" ht="43.5" customHeight="1" spans="1:18">
       <c r="A3" s="14">
@@ -3495,8 +3492,8 @@
       <c r="O3" s="14" t="s">
         <v>22</v>
       </c>
-      <c r="Q3" s="69"/>
-      <c r="R3" s="70"/>
+      <c r="Q3" s="68"/>
+      <c r="R3" s="69"/>
     </row>
     <row r="4" ht="43.5" customHeight="1" spans="1:18">
       <c r="A4" s="14">
@@ -3538,8 +3535,8 @@
       <c r="O4" s="14" t="s">
         <v>25</v>
       </c>
-      <c r="Q4" s="69"/>
-      <c r="R4" s="70"/>
+      <c r="Q4" s="68"/>
+      <c r="R4" s="69"/>
     </row>
     <row r="5" ht="43.5" customHeight="1" spans="1:18">
       <c r="A5" s="14">
@@ -3548,7 +3545,7 @@
       <c r="B5" s="14">
         <v>0</v>
       </c>
-      <c r="C5" s="50" t="s">
+      <c r="C5" s="49" t="s">
         <v>26</v>
       </c>
       <c r="D5" s="14" t="s">
@@ -3578,11 +3575,11 @@
       <c r="N5" s="14" t="s">
         <v>18</v>
       </c>
-      <c r="O5" s="50" t="s">
+      <c r="O5" s="49" t="s">
         <v>27</v>
       </c>
-      <c r="Q5" s="69"/>
-      <c r="R5" s="70"/>
+      <c r="Q5" s="68"/>
+      <c r="R5" s="69"/>
     </row>
     <row r="6" ht="25.5" customHeight="1" spans="1:15">
       <c r="A6" s="14">
@@ -3662,7 +3659,7 @@
       <c r="N7" s="14" t="s">
         <v>35</v>
       </c>
-      <c r="O7" s="50" t="s">
+      <c r="O7" s="49" t="s">
         <v>36</v>
       </c>
     </row>
@@ -3703,7 +3700,7 @@
       <c r="N8" s="14" t="s">
         <v>40</v>
       </c>
-      <c r="O8" s="50" t="s">
+      <c r="O8" s="49" t="s">
         <v>41</v>
       </c>
     </row>
@@ -3714,7 +3711,7 @@
       <c r="B9" s="14">
         <v>-1</v>
       </c>
-      <c r="C9" s="50" t="s">
+      <c r="C9" s="49" t="s">
         <v>42</v>
       </c>
       <c r="D9" s="14" t="s">
@@ -3892,7 +3889,7 @@
       <c r="B14" s="14">
         <v>-1</v>
       </c>
-      <c r="C14" s="50" t="s">
+      <c r="C14" s="49" t="s">
         <v>49</v>
       </c>
       <c r="D14" s="14" t="s">
@@ -3927,7 +3924,7 @@
       <c r="B15" s="14">
         <v>-1</v>
       </c>
-      <c r="C15" s="68" t="s">
+      <c r="C15" s="67" t="s">
         <v>50</v>
       </c>
       <c r="D15" s="14" t="s">
@@ -3962,7 +3959,7 @@
       <c r="B16" s="14">
         <v>-1</v>
       </c>
-      <c r="C16" s="50" t="s">
+      <c r="C16" s="49" t="s">
         <v>51</v>
       </c>
       <c r="D16" s="14" t="s">
@@ -4067,7 +4064,7 @@
       <c r="B19" s="14">
         <v>-1</v>
       </c>
-      <c r="C19" s="50" t="s">
+      <c r="C19" s="49" t="s">
         <v>54</v>
       </c>
       <c r="D19" s="14" t="s">
@@ -4207,7 +4204,7 @@
       <c r="B23" s="14">
         <v>-1</v>
       </c>
-      <c r="C23" s="50" t="s">
+      <c r="C23" s="49" t="s">
         <v>58</v>
       </c>
       <c r="D23" s="14" t="s">
@@ -4347,7 +4344,7 @@
       <c r="B27" s="14">
         <v>-1</v>
       </c>
-      <c r="C27" s="50" t="s">
+      <c r="C27" s="49" t="s">
         <v>62</v>
       </c>
       <c r="D27" s="14" t="s">
@@ -4382,7 +4379,7 @@
       <c r="B28" s="14">
         <v>-1</v>
       </c>
-      <c r="C28" s="50" t="s">
+      <c r="C28" s="49" t="s">
         <v>63</v>
       </c>
       <c r="D28" s="14" t="s">
@@ -4417,7 +4414,7 @@
       <c r="B29" s="14">
         <v>-1</v>
       </c>
-      <c r="C29" s="50" t="s">
+      <c r="C29" s="49" t="s">
         <v>64</v>
       </c>
       <c r="D29" s="14" t="s">
@@ -5400,7 +5397,7 @@
       <c r="C57" s="14" t="s">
         <v>99</v>
       </c>
-      <c r="D57" s="50" t="s">
+      <c r="D57" s="49" t="s">
         <v>100</v>
       </c>
       <c r="E57" s="14" t="s">
@@ -5537,7 +5534,7 @@
       <c r="B61" s="26">
         <v>-1</v>
       </c>
-      <c r="C61" s="50" t="s">
+      <c r="C61" s="49" t="s">
         <v>108</v>
       </c>
       <c r="D61" s="14" t="s">
@@ -5718,7 +5715,7 @@
       <c r="D66" s="14" t="s">
         <v>120</v>
       </c>
-      <c r="E66" s="50" t="s">
+      <c r="E66" s="49" t="s">
         <v>39</v>
       </c>
       <c r="F66" s="14">
@@ -5750,7 +5747,7 @@
       <c r="C67" s="14" t="s">
         <v>121</v>
       </c>
-      <c r="D67" s="50" t="s">
+      <c r="D67" s="49" t="s">
         <v>122</v>
       </c>
       <c r="E67" s="14" t="s">
@@ -5788,7 +5785,7 @@
       <c r="D68" s="28" t="s">
         <v>124</v>
       </c>
-      <c r="E68" s="71" t="s">
+      <c r="E68" s="70" t="s">
         <v>124</v>
       </c>
       <c r="F68" s="28">
@@ -6062,10 +6059,10 @@
       <c r="B76" s="28">
         <v>0</v>
       </c>
-      <c r="C76" s="71" t="s">
+      <c r="C76" s="70" t="s">
         <v>135</v>
       </c>
-      <c r="D76" s="71" t="s">
+      <c r="D76" s="70" t="s">
         <v>124</v>
       </c>
       <c r="E76" s="28" t="s">
@@ -6100,7 +6097,7 @@
       <c r="C77" s="28" t="s">
         <v>136</v>
       </c>
-      <c r="D77" s="71" t="s">
+      <c r="D77" s="70" t="s">
         <v>124</v>
       </c>
       <c r="E77" s="28" t="s">
@@ -6125,108 +6122,108 @@
         <v>259200</v>
       </c>
     </row>
-    <row r="78" s="58" customFormat="1" spans="1:11">
-      <c r="A78" s="58">
+    <row r="78" s="57" customFormat="1" spans="1:11">
+      <c r="A78" s="57">
         <v>78</v>
       </c>
-      <c r="B78" s="58">
-        <v>1</v>
-      </c>
-      <c r="C78" s="72" t="s">
+      <c r="B78" s="57">
+        <v>1</v>
+      </c>
+      <c r="C78" s="71" t="s">
         <v>137</v>
       </c>
-      <c r="D78" s="72" t="s">
+      <c r="D78" s="71" t="s">
         <v>138</v>
       </c>
-      <c r="E78" s="72" t="s">
+      <c r="E78" s="71" t="s">
         <v>139</v>
       </c>
-      <c r="F78" s="58">
+      <c r="F78" s="57">
         <v>78</v>
       </c>
-      <c r="G78" s="58" t="b">
-        <v>1</v>
-      </c>
-      <c r="H78" s="58">
-        <v>1</v>
-      </c>
-      <c r="I78" s="58">
+      <c r="G78" s="57" t="b">
+        <v>1</v>
+      </c>
+      <c r="H78" s="57">
+        <v>1</v>
+      </c>
+      <c r="I78" s="57">
         <v>946656000</v>
       </c>
-      <c r="J78" s="58">
+      <c r="J78" s="57">
         <v>32503651200</v>
       </c>
-      <c r="K78" s="58">
+      <c r="K78" s="57">
         <v>-1</v>
       </c>
     </row>
-    <row r="79" s="58" customFormat="1" spans="1:11">
-      <c r="A79" s="58">
+    <row r="79" s="57" customFormat="1" spans="1:11">
+      <c r="A79" s="57">
         <v>79</v>
       </c>
-      <c r="B79" s="58">
-        <v>1</v>
-      </c>
-      <c r="C79" s="72" t="s">
+      <c r="B79" s="57">
+        <v>1</v>
+      </c>
+      <c r="C79" s="71" t="s">
         <v>140</v>
       </c>
-      <c r="D79" s="72" t="s">
+      <c r="D79" s="71" t="s">
         <v>141</v>
       </c>
-      <c r="E79" s="72" t="s">
+      <c r="E79" s="71" t="s">
         <v>139</v>
       </c>
-      <c r="F79" s="58">
+      <c r="F79" s="57">
         <v>79</v>
       </c>
-      <c r="G79" s="58" t="b">
-        <v>1</v>
-      </c>
-      <c r="H79" s="58">
-        <v>1</v>
-      </c>
-      <c r="I79" s="58">
+      <c r="G79" s="57" t="b">
+        <v>1</v>
+      </c>
+      <c r="H79" s="57">
+        <v>1</v>
+      </c>
+      <c r="I79" s="57">
         <v>946656000</v>
       </c>
-      <c r="J79" s="58">
+      <c r="J79" s="57">
         <v>32503651200</v>
       </c>
-      <c r="K79" s="58">
+      <c r="K79" s="57">
         <v>-1</v>
       </c>
     </row>
-    <row r="80" s="58" customFormat="1" spans="1:11">
-      <c r="A80" s="58">
+    <row r="80" s="57" customFormat="1" spans="1:11">
+      <c r="A80" s="57">
         <v>80</v>
       </c>
-      <c r="B80" s="58">
-        <v>1</v>
-      </c>
-      <c r="C80" s="72" t="s">
+      <c r="B80" s="57">
+        <v>1</v>
+      </c>
+      <c r="C80" s="71" t="s">
         <v>142</v>
       </c>
-      <c r="D80" s="72" t="s">
+      <c r="D80" s="71" t="s">
         <v>143</v>
       </c>
-      <c r="E80" s="72" t="s">
+      <c r="E80" s="71" t="s">
         <v>139</v>
       </c>
-      <c r="F80" s="58">
+      <c r="F80" s="57">
         <v>80</v>
       </c>
-      <c r="G80" s="58" t="b">
-        <v>1</v>
-      </c>
-      <c r="H80" s="58">
-        <v>1</v>
-      </c>
-      <c r="I80" s="58">
+      <c r="G80" s="57" t="b">
+        <v>1</v>
+      </c>
+      <c r="H80" s="57">
+        <v>1</v>
+      </c>
+      <c r="I80" s="57">
         <v>946656000</v>
       </c>
-      <c r="J80" s="58">
+      <c r="J80" s="57">
         <v>32503651200</v>
       </c>
-      <c r="K80" s="58">
+      <c r="K80" s="57">
         <v>-1</v>
       </c>
     </row>
@@ -6272,13 +6269,13 @@
       <c r="B82" s="30">
         <v>0</v>
       </c>
-      <c r="C82" s="73" t="s">
+      <c r="C82" s="72" t="s">
         <v>146</v>
       </c>
       <c r="D82" s="30" t="s">
         <v>124</v>
       </c>
-      <c r="E82" s="73" t="s">
+      <c r="E82" s="72" t="s">
         <v>124</v>
       </c>
       <c r="F82" s="30">
@@ -6309,10 +6306,10 @@
       <c r="B83" s="30">
         <v>0</v>
       </c>
-      <c r="C83" s="73" t="s">
+      <c r="C83" s="72" t="s">
         <v>147</v>
       </c>
-      <c r="D83" s="73" t="s">
+      <c r="D83" s="72" t="s">
         <v>124</v>
       </c>
       <c r="E83" s="30" t="s">
@@ -6346,10 +6343,10 @@
       <c r="B84" s="30">
         <v>0</v>
       </c>
-      <c r="C84" s="73" t="s">
+      <c r="C84" s="72" t="s">
         <v>148</v>
       </c>
-      <c r="D84" s="73" t="s">
+      <c r="D84" s="72" t="s">
         <v>124</v>
       </c>
       <c r="E84" s="30" t="s">
@@ -6421,7 +6418,7 @@
       <c r="C86" s="14" t="s">
         <v>110</v>
       </c>
-      <c r="D86" s="50" t="s">
+      <c r="D86" s="49" t="s">
         <v>150</v>
       </c>
       <c r="E86" s="14" t="s">
@@ -6456,7 +6453,7 @@
       <c r="C87" s="14" t="s">
         <v>113</v>
       </c>
-      <c r="D87" s="50" t="s">
+      <c r="D87" s="49" t="s">
         <v>151</v>
       </c>
       <c r="E87" s="14" t="s">
@@ -6491,7 +6488,7 @@
       <c r="C88" s="14" t="s">
         <v>115</v>
       </c>
-      <c r="D88" s="50" t="s">
+      <c r="D88" s="49" t="s">
         <v>152</v>
       </c>
       <c r="E88" s="14" t="s">
@@ -6523,10 +6520,10 @@
       <c r="B89" s="14">
         <v>1</v>
       </c>
-      <c r="C89" s="50" t="s">
+      <c r="C89" s="49" t="s">
         <v>153</v>
       </c>
-      <c r="D89" s="50" t="s">
+      <c r="D89" s="49" t="s">
         <v>154</v>
       </c>
       <c r="E89" s="14" t="s">
@@ -6551,108 +6548,108 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="90" s="58" customFormat="1" spans="1:11">
-      <c r="A90" s="58">
+    <row r="90" s="57" customFormat="1" spans="1:11">
+      <c r="A90" s="57">
         <v>90</v>
       </c>
-      <c r="B90" s="58">
-        <v>1</v>
-      </c>
-      <c r="C90" s="72" t="s">
+      <c r="B90" s="57">
+        <v>1</v>
+      </c>
+      <c r="C90" s="71" t="s">
         <v>155</v>
       </c>
-      <c r="D90" s="72" t="s">
+      <c r="D90" s="71" t="s">
         <v>156</v>
       </c>
-      <c r="E90" s="72" t="s">
+      <c r="E90" s="71" t="s">
         <v>139</v>
       </c>
-      <c r="F90" s="58">
+      <c r="F90" s="57">
         <v>90</v>
       </c>
-      <c r="G90" s="58" t="b">
-        <v>1</v>
-      </c>
-      <c r="H90" s="58">
-        <v>1</v>
-      </c>
-      <c r="I90" s="58">
+      <c r="G90" s="57" t="b">
+        <v>1</v>
+      </c>
+      <c r="H90" s="57">
+        <v>1</v>
+      </c>
+      <c r="I90" s="57">
         <v>946656000</v>
       </c>
-      <c r="J90" s="58">
+      <c r="J90" s="57">
         <v>32503651200</v>
       </c>
-      <c r="K90" s="58">
+      <c r="K90" s="57">
         <v>-1</v>
       </c>
     </row>
-    <row r="91" s="58" customFormat="1" spans="1:11">
-      <c r="A91" s="58">
+    <row r="91" s="57" customFormat="1" spans="1:11">
+      <c r="A91" s="57">
         <v>91</v>
       </c>
-      <c r="B91" s="58">
-        <v>1</v>
-      </c>
-      <c r="C91" s="72" t="s">
+      <c r="B91" s="57">
+        <v>1</v>
+      </c>
+      <c r="C91" s="71" t="s">
         <v>157</v>
       </c>
-      <c r="D91" s="72" t="s">
+      <c r="D91" s="71" t="s">
         <v>158</v>
       </c>
-      <c r="E91" s="72" t="s">
+      <c r="E91" s="71" t="s">
         <v>139</v>
       </c>
-      <c r="F91" s="58">
+      <c r="F91" s="57">
         <v>91</v>
       </c>
-      <c r="G91" s="58" t="b">
-        <v>1</v>
-      </c>
-      <c r="H91" s="58">
-        <v>1</v>
-      </c>
-      <c r="I91" s="58">
+      <c r="G91" s="57" t="b">
+        <v>1</v>
+      </c>
+      <c r="H91" s="57">
+        <v>1</v>
+      </c>
+      <c r="I91" s="57">
         <v>946656000</v>
       </c>
-      <c r="J91" s="58">
+      <c r="J91" s="57">
         <v>32503651200</v>
       </c>
-      <c r="K91" s="58">
+      <c r="K91" s="57">
         <v>-1</v>
       </c>
     </row>
-    <row r="92" s="58" customFormat="1" spans="1:11">
-      <c r="A92" s="58">
+    <row r="92" s="57" customFormat="1" spans="1:11">
+      <c r="A92" s="57">
         <v>92</v>
       </c>
-      <c r="B92" s="58">
-        <v>1</v>
-      </c>
-      <c r="C92" s="72" t="s">
+      <c r="B92" s="57">
+        <v>1</v>
+      </c>
+      <c r="C92" s="71" t="s">
         <v>159</v>
       </c>
-      <c r="D92" s="72" t="s">
+      <c r="D92" s="71" t="s">
         <v>160</v>
       </c>
-      <c r="E92" s="72" t="s">
+      <c r="E92" s="71" t="s">
         <v>139</v>
       </c>
-      <c r="F92" s="58">
+      <c r="F92" s="57">
         <v>92</v>
       </c>
-      <c r="G92" s="58" t="b">
-        <v>1</v>
-      </c>
-      <c r="H92" s="58">
-        <v>1</v>
-      </c>
-      <c r="I92" s="58">
+      <c r="G92" s="57" t="b">
+        <v>1</v>
+      </c>
+      <c r="H92" s="57">
+        <v>1</v>
+      </c>
+      <c r="I92" s="57">
         <v>946656000</v>
       </c>
-      <c r="J92" s="58">
+      <c r="J92" s="57">
         <v>32503651200</v>
       </c>
-      <c r="K92" s="58">
+      <c r="K92" s="57">
         <v>-1</v>
       </c>
     </row>
@@ -6663,13 +6660,13 @@
       <c r="B93" s="14">
         <v>1</v>
       </c>
-      <c r="C93" s="50" t="s">
+      <c r="C93" s="49" t="s">
         <v>161</v>
       </c>
-      <c r="D93" s="50" t="s">
+      <c r="D93" s="49" t="s">
         <v>16</v>
       </c>
-      <c r="E93" s="50" t="s">
+      <c r="E93" s="49" t="s">
         <v>162</v>
       </c>
       <c r="F93" s="14">
@@ -6684,13 +6681,13 @@
       <c r="I93" s="14">
         <v>1603641600</v>
       </c>
-      <c r="J93" s="58">
+      <c r="J93" s="57">
         <v>32503651200</v>
       </c>
-      <c r="K93" s="58">
+      <c r="K93" s="57">
         <v>-1</v>
       </c>
-      <c r="L93" s="75">
+      <c r="L93" s="74">
         <v>1</v>
       </c>
       <c r="M93" s="28" t="s">
@@ -6704,19 +6701,19 @@
       <c r="B94" s="14">
         <v>0</v>
       </c>
-      <c r="C94" s="50" t="s">
+      <c r="C94" s="49" t="s">
         <v>164</v>
       </c>
-      <c r="D94" s="50" t="s">
+      <c r="D94" s="49" t="s">
         <v>16</v>
       </c>
-      <c r="E94" s="50" t="s">
+      <c r="E94" s="49" t="s">
         <v>39</v>
       </c>
       <c r="F94" s="14">
         <v>94</v>
       </c>
-      <c r="G94" s="50" t="b">
+      <c r="G94" s="49" t="b">
         <v>0</v>
       </c>
       <c r="H94" s="14">
@@ -6725,14 +6722,14 @@
       <c r="I94" s="14">
         <v>1603641600</v>
       </c>
-      <c r="J94" s="58">
+      <c r="J94" s="57">
         <v>32503651200</v>
       </c>
-      <c r="K94" s="58">
+      <c r="K94" s="57">
         <v>-1</v>
       </c>
-      <c r="L94" s="58"/>
-      <c r="M94" s="58"/>
+      <c r="L94" s="57"/>
+      <c r="M94" s="57"/>
     </row>
     <row r="95" spans="1:12">
       <c r="A95" s="14">
@@ -6741,19 +6738,19 @@
       <c r="B95" s="14">
         <v>1</v>
       </c>
-      <c r="C95" s="50" t="s">
+      <c r="C95" s="49" t="s">
         <v>165</v>
       </c>
-      <c r="D95" s="50" t="s">
+      <c r="D95" s="49" t="s">
         <v>166</v>
       </c>
-      <c r="E95" s="50" t="s">
+      <c r="E95" s="49" t="s">
         <v>39</v>
       </c>
       <c r="F95" s="14">
         <v>95</v>
       </c>
-      <c r="G95" s="50" t="b">
+      <c r="G95" s="49" t="b">
         <v>0</v>
       </c>
       <c r="H95" s="14">
@@ -6772,44 +6769,44 @@
         <v>1</v>
       </c>
     </row>
-    <row r="96" s="62" customFormat="1" spans="1:13">
-      <c r="A96" s="62">
+    <row r="96" s="61" customFormat="1" spans="1:13">
+      <c r="A96" s="61">
         <v>96</v>
       </c>
-      <c r="B96" s="62">
-        <v>1</v>
-      </c>
-      <c r="C96" s="74" t="s">
+      <c r="B96" s="61">
+        <v>1</v>
+      </c>
+      <c r="C96" s="73" t="s">
         <v>167</v>
       </c>
-      <c r="D96" s="74" t="s">
+      <c r="D96" s="73" t="s">
         <v>16</v>
       </c>
-      <c r="E96" s="74" t="s">
+      <c r="E96" s="73" t="s">
         <v>168</v>
       </c>
-      <c r="F96" s="62">
+      <c r="F96" s="61">
         <v>96</v>
       </c>
-      <c r="G96" s="62" t="b">
-        <v>1</v>
-      </c>
-      <c r="H96" s="62">
+      <c r="G96" s="61" t="b">
+        <v>1</v>
+      </c>
+      <c r="H96" s="61">
         <v>7</v>
       </c>
-      <c r="I96" s="62">
+      <c r="I96" s="61">
         <v>1615132800</v>
       </c>
-      <c r="J96" s="62">
+      <c r="J96" s="61">
         <v>32503651200</v>
       </c>
-      <c r="K96" s="62">
+      <c r="K96" s="61">
         <v>-1</v>
       </c>
-      <c r="L96" s="62">
-        <v>1</v>
-      </c>
-      <c r="M96" s="74" t="s">
+      <c r="L96" s="61">
+        <v>1</v>
+      </c>
+      <c r="M96" s="73" t="s">
         <v>169</v>
       </c>
     </row>
@@ -6820,19 +6817,19 @@
       <c r="B97" s="14">
         <v>1</v>
       </c>
-      <c r="C97" s="50" t="s">
+      <c r="C97" s="49" t="s">
         <v>170</v>
       </c>
-      <c r="D97" s="50" t="s">
+      <c r="D97" s="49" t="s">
         <v>171</v>
       </c>
-      <c r="E97" s="50" t="s">
+      <c r="E97" s="49" t="s">
         <v>39</v>
       </c>
       <c r="F97" s="14">
         <v>97</v>
       </c>
-      <c r="G97" s="62" t="b">
+      <c r="G97" s="61" t="b">
         <v>1</v>
       </c>
       <c r="H97" s="14">
@@ -6858,19 +6855,19 @@
       <c r="B98" s="14">
         <v>1</v>
       </c>
-      <c r="C98" s="50" t="s">
+      <c r="C98" s="49" t="s">
         <v>172</v>
       </c>
-      <c r="D98" s="50" t="s">
+      <c r="D98" s="49" t="s">
         <v>171</v>
       </c>
-      <c r="E98" s="50" t="s">
+      <c r="E98" s="49" t="s">
         <v>39</v>
       </c>
       <c r="F98" s="14">
         <v>98</v>
       </c>
-      <c r="G98" s="62" t="b">
+      <c r="G98" s="61" t="b">
         <v>1</v>
       </c>
       <c r="H98" s="14">
@@ -6896,13 +6893,13 @@
       <c r="B99" s="14">
         <v>1</v>
       </c>
-      <c r="C99" s="50" t="s">
+      <c r="C99" s="49" t="s">
         <v>173</v>
       </c>
-      <c r="D99" s="50" t="s">
+      <c r="D99" s="49" t="s">
         <v>16</v>
       </c>
-      <c r="E99" s="50" t="s">
+      <c r="E99" s="49" t="s">
         <v>39</v>
       </c>
       <c r="F99" s="14">
@@ -6934,13 +6931,13 @@
       <c r="B100" s="14">
         <v>1</v>
       </c>
-      <c r="C100" s="50" t="s">
+      <c r="C100" s="49" t="s">
         <v>174</v>
       </c>
-      <c r="D100" s="50" t="s">
+      <c r="D100" s="49" t="s">
         <v>16</v>
       </c>
-      <c r="E100" s="50" t="s">
+      <c r="E100" s="49" t="s">
         <v>39</v>
       </c>
       <c r="F100" s="14">
@@ -7662,10 +7659,10 @@
       <c r="C119" s="26" t="s">
         <v>197</v>
       </c>
-      <c r="D119" s="50" t="s">
+      <c r="D119" s="49" t="s">
         <v>16</v>
       </c>
-      <c r="E119" s="50" t="s">
+      <c r="E119" s="49" t="s">
         <v>39</v>
       </c>
       <c r="F119" s="14">
@@ -7700,10 +7697,10 @@
       <c r="C120" s="26" t="s">
         <v>198</v>
       </c>
-      <c r="D120" s="50" t="s">
+      <c r="D120" s="49" t="s">
         <v>16</v>
       </c>
-      <c r="E120" s="50" t="s">
+      <c r="E120" s="49" t="s">
         <v>39</v>
       </c>
       <c r="F120" s="14">
@@ -7738,10 +7735,10 @@
       <c r="C121" s="26" t="s">
         <v>199</v>
       </c>
-      <c r="D121" s="50" t="s">
+      <c r="D121" s="49" t="s">
         <v>16</v>
       </c>
-      <c r="E121" s="50" t="s">
+      <c r="E121" s="49" t="s">
         <v>39</v>
       </c>
       <c r="F121" s="14">
@@ -7776,10 +7773,10 @@
       <c r="C122" s="26" t="s">
         <v>200</v>
       </c>
-      <c r="D122" s="50" t="s">
+      <c r="D122" s="49" t="s">
         <v>16</v>
       </c>
-      <c r="E122" s="50" t="s">
+      <c r="E122" s="49" t="s">
         <v>39</v>
       </c>
       <c r="F122" s="14">
@@ -7814,10 +7811,10 @@
       <c r="C123" s="26" t="s">
         <v>201</v>
       </c>
-      <c r="D123" s="50" t="s">
+      <c r="D123" s="49" t="s">
         <v>16</v>
       </c>
-      <c r="E123" s="50" t="s">
+      <c r="E123" s="49" t="s">
         <v>39</v>
       </c>
       <c r="F123" s="14">
@@ -7852,10 +7849,10 @@
       <c r="C124" s="26" t="s">
         <v>202</v>
       </c>
-      <c r="D124" s="50" t="s">
+      <c r="D124" s="49" t="s">
         <v>16</v>
       </c>
-      <c r="E124" s="50" t="s">
+      <c r="E124" s="49" t="s">
         <v>39</v>
       </c>
       <c r="F124" s="14">
@@ -7904,7 +7901,7 @@
     <col min="2" max="5" width="32.75" style="4" customWidth="1"/>
     <col min="6" max="6" width="59.5" style="4" customWidth="1"/>
     <col min="7" max="7" width="28.75" style="4" customWidth="1"/>
-    <col min="8" max="8" width="37.5" style="48" customWidth="1"/>
+    <col min="8" max="8" width="37.5" style="47" customWidth="1"/>
     <col min="9" max="9" width="26" style="4" customWidth="1"/>
     <col min="10" max="11" width="31.375" customWidth="1"/>
   </cols>
@@ -7931,7 +7928,7 @@
       <c r="G1" s="5" t="s">
         <v>208</v>
       </c>
-      <c r="H1" s="49" t="s">
+      <c r="H1" s="48" t="s">
         <v>209</v>
       </c>
       <c r="I1" s="5" t="s">
@@ -7940,7 +7937,7 @@
       <c r="J1" s="5" t="s">
         <v>211</v>
       </c>
-      <c r="K1" s="54"/>
+      <c r="K1" s="53"/>
     </row>
     <row r="2" spans="1:9">
       <c r="A2" s="14">
@@ -7958,11 +7955,11 @@
       <c r="E2" s="14">
         <v>1</v>
       </c>
-      <c r="F2" s="76" t="s">
+      <c r="F2" s="75" t="s">
         <v>213</v>
       </c>
-      <c r="G2" s="50"/>
-      <c r="H2" s="77" t="s">
+      <c r="G2" s="49"/>
+      <c r="H2" s="76" t="s">
         <v>214</v>
       </c>
       <c r="I2" s="4" t="s">
@@ -7985,11 +7982,11 @@
       <c r="E3" s="14">
         <v>2</v>
       </c>
-      <c r="F3" s="78" t="s">
+      <c r="F3" s="77" t="s">
         <v>213</v>
       </c>
       <c r="G3" s="14"/>
-      <c r="H3" s="77" t="s">
+      <c r="H3" s="76" t="s">
         <v>216</v>
       </c>
       <c r="I3" s="4" t="s">
@@ -8012,11 +8009,11 @@
       <c r="E4" s="14">
         <v>3</v>
       </c>
-      <c r="F4" s="78" t="s">
+      <c r="F4" s="77" t="s">
         <v>213</v>
       </c>
       <c r="G4" s="14"/>
-      <c r="H4" s="77" t="s">
+      <c r="H4" s="76" t="s">
         <v>217</v>
       </c>
       <c r="I4" s="4" t="s">
@@ -8039,11 +8036,11 @@
       <c r="E5" s="14">
         <v>4</v>
       </c>
-      <c r="F5" s="76" t="s">
+      <c r="F5" s="75" t="s">
         <v>218</v>
       </c>
-      <c r="G5" s="50"/>
-      <c r="H5" s="77" t="s">
+      <c r="G5" s="49"/>
+      <c r="H5" s="76" t="s">
         <v>219</v>
       </c>
       <c r="I5" s="4" t="s">
@@ -8070,13 +8067,13 @@
         <v>10</v>
       </c>
       <c r="G6" s="14"/>
-      <c r="H6" s="52">
+      <c r="H6" s="51">
         <v>5</v>
       </c>
       <c r="I6" s="4" t="s">
         <v>215</v>
       </c>
-      <c r="J6" s="55"/>
+      <c r="J6" s="54"/>
     </row>
     <row r="7" spans="1:9">
       <c r="A7" s="4">
@@ -8097,7 +8094,7 @@
       <c r="F7" s="4">
         <v>10</v>
       </c>
-      <c r="H7" s="48">
+      <c r="H7" s="47">
         <v>6</v>
       </c>
       <c r="I7" s="4" t="s">
@@ -8123,7 +8120,7 @@
       <c r="F8" s="4">
         <v>8</v>
       </c>
-      <c r="H8" s="48">
+      <c r="H8" s="47">
         <v>28</v>
       </c>
       <c r="I8" s="4" t="s">
@@ -8149,7 +8146,7 @@
       <c r="F9" s="4">
         <v>1</v>
       </c>
-      <c r="H9" s="48">
+      <c r="H9" s="47">
         <v>7</v>
       </c>
       <c r="I9" s="4" t="s">
@@ -8176,7 +8173,7 @@
       <c r="F10" s="4">
         <v>1</v>
       </c>
-      <c r="H10" s="48">
+      <c r="H10" s="47">
         <v>8</v>
       </c>
       <c r="I10" s="4" t="s">
@@ -8202,7 +8199,7 @@
       <c r="F11" s="4">
         <v>5</v>
       </c>
-      <c r="H11" s="48">
+      <c r="H11" s="47">
         <v>9</v>
       </c>
       <c r="I11" s="4" t="s">
@@ -8228,7 +8225,7 @@
       <c r="F12" s="4">
         <v>1</v>
       </c>
-      <c r="H12" s="48">
+      <c r="H12" s="47">
         <v>10</v>
       </c>
       <c r="I12" s="4" t="s">
@@ -8254,7 +8251,7 @@
       <c r="F13" s="4">
         <v>8</v>
       </c>
-      <c r="H13" s="48">
+      <c r="H13" s="47">
         <v>11</v>
       </c>
       <c r="I13" s="4" t="s">
@@ -8280,7 +8277,7 @@
       <c r="F14" s="4">
         <v>5</v>
       </c>
-      <c r="H14" s="48">
+      <c r="H14" s="47">
         <v>12</v>
       </c>
       <c r="I14" s="4" t="s">
@@ -8306,7 +8303,7 @@
       <c r="F15" s="4">
         <v>1</v>
       </c>
-      <c r="H15" s="48">
+      <c r="H15" s="47">
         <v>13</v>
       </c>
       <c r="I15" s="4" t="s">
@@ -8332,7 +8329,7 @@
       <c r="F16" s="4">
         <v>1000</v>
       </c>
-      <c r="H16" s="48">
+      <c r="H16" s="47">
         <v>14</v>
       </c>
       <c r="I16" s="4" t="s">
@@ -8358,7 +8355,7 @@
       <c r="F17" s="4">
         <v>1</v>
       </c>
-      <c r="H17" s="48">
+      <c r="H17" s="47">
         <v>15</v>
       </c>
       <c r="I17" s="4" t="s">
@@ -8384,7 +8381,7 @@
       <c r="F18" s="4">
         <v>1</v>
       </c>
-      <c r="H18" s="48">
+      <c r="H18" s="47">
         <v>16</v>
       </c>
       <c r="I18" s="4" t="s">
@@ -8410,7 +8407,7 @@
       <c r="F19" s="4">
         <v>5</v>
       </c>
-      <c r="H19" s="48">
+      <c r="H19" s="47">
         <v>17</v>
       </c>
       <c r="I19" s="4" t="s">
@@ -8436,7 +8433,7 @@
       <c r="F20" s="4">
         <v>1</v>
       </c>
-      <c r="H20" s="48">
+      <c r="H20" s="47">
         <v>18</v>
       </c>
       <c r="I20" s="4" t="s">
@@ -8462,7 +8459,7 @@
       <c r="F21" s="4">
         <v>1</v>
       </c>
-      <c r="H21" s="48">
+      <c r="H21" s="47">
         <v>19</v>
       </c>
       <c r="I21" s="4" t="s">
@@ -8488,7 +8485,7 @@
       <c r="F22" s="4">
         <v>5</v>
       </c>
-      <c r="H22" s="48">
+      <c r="H22" s="47">
         <v>20</v>
       </c>
       <c r="I22" s="4" t="s">
@@ -8514,7 +8511,7 @@
       <c r="F23" s="4">
         <v>3</v>
       </c>
-      <c r="H23" s="48">
+      <c r="H23" s="47">
         <v>21</v>
       </c>
       <c r="I23" s="4" t="s">
@@ -8540,7 +8537,7 @@
       <c r="F24" s="4">
         <v>5</v>
       </c>
-      <c r="H24" s="48">
+      <c r="H24" s="47">
         <v>22</v>
       </c>
       <c r="I24" s="4" t="s">
@@ -8566,7 +8563,7 @@
       <c r="F25" s="4">
         <v>5</v>
       </c>
-      <c r="H25" s="48">
+      <c r="H25" s="47">
         <v>23</v>
       </c>
       <c r="I25" s="4" t="s">
@@ -8592,7 +8589,7 @@
       <c r="F26" s="4">
         <v>1</v>
       </c>
-      <c r="H26" s="48">
+      <c r="H26" s="47">
         <v>24</v>
       </c>
       <c r="I26" s="4" t="s">
@@ -8618,7 +8615,7 @@
       <c r="F27" s="4">
         <v>5</v>
       </c>
-      <c r="H27" s="48">
+      <c r="H27" s="47">
         <v>25</v>
       </c>
       <c r="I27" s="4" t="s">
@@ -8644,7 +8641,7 @@
       <c r="F28" s="4">
         <v>5</v>
       </c>
-      <c r="H28" s="48">
+      <c r="H28" s="47">
         <v>26</v>
       </c>
       <c r="I28" s="4" t="s">
@@ -8670,7 +8667,7 @@
       <c r="F29" s="4">
         <v>5</v>
       </c>
-      <c r="H29" s="48">
+      <c r="H29" s="47">
         <v>27</v>
       </c>
       <c r="I29" s="4" t="s">
@@ -8696,7 +8693,7 @@
       <c r="F30" s="4">
         <v>10</v>
       </c>
-      <c r="H30" s="48">
+      <c r="H30" s="47">
         <v>29</v>
       </c>
       <c r="I30" s="4" t="s">
@@ -8722,7 +8719,7 @@
       <c r="F31" s="4">
         <v>1</v>
       </c>
-      <c r="H31" s="48">
+      <c r="H31" s="47">
         <v>30</v>
       </c>
       <c r="I31" s="4" t="s">
@@ -8748,7 +8745,7 @@
       <c r="F32" s="4">
         <v>1</v>
       </c>
-      <c r="H32" s="48">
+      <c r="H32" s="47">
         <v>31</v>
       </c>
       <c r="I32" s="4" t="s">
@@ -8774,7 +8771,7 @@
       <c r="F33" s="4">
         <v>1</v>
       </c>
-      <c r="H33" s="48">
+      <c r="H33" s="47">
         <v>32</v>
       </c>
       <c r="I33" s="4" t="s">
@@ -8800,7 +8797,7 @@
       <c r="F34" s="4">
         <v>5</v>
       </c>
-      <c r="H34" s="48">
+      <c r="H34" s="47">
         <v>33</v>
       </c>
       <c r="I34" s="4" t="s">
@@ -8826,7 +8823,7 @@
       <c r="F35" s="4">
         <v>1</v>
       </c>
-      <c r="H35" s="48">
+      <c r="H35" s="47">
         <v>34</v>
       </c>
       <c r="I35" s="4" t="s">
@@ -8852,7 +8849,7 @@
       <c r="F36" s="4">
         <v>5</v>
       </c>
-      <c r="H36" s="48">
+      <c r="H36" s="47">
         <v>35</v>
       </c>
       <c r="I36" s="4" t="s">
@@ -8878,7 +8875,7 @@
       <c r="F37" s="4">
         <v>20000</v>
       </c>
-      <c r="H37" s="48">
+      <c r="H37" s="47">
         <v>36</v>
       </c>
       <c r="I37" s="4" t="s">
@@ -8904,7 +8901,7 @@
       <c r="F38" s="4">
         <v>1</v>
       </c>
-      <c r="H38" s="48">
+      <c r="H38" s="47">
         <v>37</v>
       </c>
       <c r="I38" s="4" t="s">
@@ -8930,7 +8927,7 @@
       <c r="F39" s="4">
         <v>3</v>
       </c>
-      <c r="H39" s="48">
+      <c r="H39" s="47">
         <v>37</v>
       </c>
       <c r="I39" s="4" t="s">
@@ -8956,7 +8953,7 @@
       <c r="F40" s="4">
         <v>1</v>
       </c>
-      <c r="H40" s="48">
+      <c r="H40" s="47">
         <v>39</v>
       </c>
       <c r="I40" s="4" t="s">
@@ -8982,7 +8979,7 @@
       <c r="F41" s="4">
         <v>8</v>
       </c>
-      <c r="H41" s="48">
+      <c r="H41" s="47">
         <v>40</v>
       </c>
       <c r="I41" s="4" t="s">
@@ -9008,7 +9005,7 @@
       <c r="F42" s="4">
         <v>50000</v>
       </c>
-      <c r="H42" s="48">
+      <c r="H42" s="47">
         <v>40</v>
       </c>
       <c r="I42" s="4" t="s">
@@ -9034,7 +9031,7 @@
       <c r="F43" s="4">
         <v>10</v>
       </c>
-      <c r="H43" s="48">
+      <c r="H43" s="47">
         <v>42</v>
       </c>
       <c r="I43" s="4" t="s">
@@ -9060,7 +9057,7 @@
       <c r="F44" s="4">
         <v>100000</v>
       </c>
-      <c r="H44" s="48">
+      <c r="H44" s="47">
         <v>42</v>
       </c>
       <c r="I44" s="4" t="s">
@@ -9086,7 +9083,7 @@
       <c r="F45" s="4">
         <v>600</v>
       </c>
-      <c r="H45" s="48">
+      <c r="H45" s="47">
         <v>44</v>
       </c>
       <c r="I45" s="4" t="s">
@@ -9112,7 +9109,7 @@
       <c r="F46" s="4">
         <v>1</v>
       </c>
-      <c r="H46" s="48">
+      <c r="H46" s="47">
         <v>44</v>
       </c>
       <c r="I46" s="4" t="s">
@@ -9138,7 +9135,7 @@
       <c r="F47" s="4">
         <v>1</v>
       </c>
-      <c r="H47" s="48">
+      <c r="H47" s="47">
         <v>46</v>
       </c>
       <c r="I47" s="4" t="s">
@@ -9164,7 +9161,7 @@
       <c r="F48" s="4">
         <v>1</v>
       </c>
-      <c r="H48" s="48">
+      <c r="H48" s="47">
         <v>47</v>
       </c>
       <c r="I48" s="4" t="s">
@@ -9190,7 +9187,7 @@
       <c r="F49" s="4">
         <v>1</v>
       </c>
-      <c r="H49" s="48">
+      <c r="H49" s="47">
         <v>48</v>
       </c>
       <c r="I49" s="4" t="s">
@@ -9216,7 +9213,7 @@
       <c r="F50" s="4">
         <v>1</v>
       </c>
-      <c r="H50" s="48">
+      <c r="H50" s="47">
         <v>49</v>
       </c>
       <c r="I50" s="4" t="s">
@@ -9239,11 +9236,11 @@
       <c r="E51" s="4">
         <v>0</v>
       </c>
-      <c r="F51" s="79" t="s">
+      <c r="F51" s="78" t="s">
         <v>228</v>
       </c>
-      <c r="G51" s="53"/>
-      <c r="H51" s="48" t="s">
+      <c r="G51" s="52"/>
+      <c r="H51" s="47" t="s">
         <v>229</v>
       </c>
       <c r="I51" s="4" t="s">
@@ -9269,7 +9266,7 @@
       <c r="F52" s="4">
         <v>8</v>
       </c>
-      <c r="H52" s="48">
+      <c r="H52" s="47">
         <v>60</v>
       </c>
       <c r="I52" s="4" t="s">
@@ -9295,7 +9292,7 @@
       <c r="F53" s="4">
         <v>1</v>
       </c>
-      <c r="H53" s="48">
+      <c r="H53" s="47">
         <v>61</v>
       </c>
       <c r="I53" s="4" t="s">
@@ -9321,7 +9318,7 @@
       <c r="F54" s="4">
         <v>0</v>
       </c>
-      <c r="H54" s="48">
+      <c r="H54" s="47">
         <v>62</v>
       </c>
       <c r="I54" s="4" t="s">
@@ -9347,7 +9344,7 @@
       <c r="F55" s="4">
         <v>0</v>
       </c>
-      <c r="H55" s="48">
+      <c r="H55" s="47">
         <v>63</v>
       </c>
       <c r="I55" s="4" t="s">
@@ -9373,7 +9370,7 @@
       <c r="F56" s="4">
         <v>1</v>
       </c>
-      <c r="H56" s="48">
+      <c r="H56" s="47">
         <v>64</v>
       </c>
       <c r="I56" s="4" t="s">
@@ -9399,7 +9396,7 @@
       <c r="F57" s="4">
         <v>2000000</v>
       </c>
-      <c r="H57" s="48">
+      <c r="H57" s="47">
         <v>65</v>
       </c>
       <c r="I57" s="4" t="s">
@@ -9517,7 +9514,7 @@
       <c r="F62" s="4" t="s">
         <v>233</v>
       </c>
-      <c r="H62" s="48" t="s">
+      <c r="H62" s="47" t="s">
         <v>234</v>
       </c>
     </row>
@@ -9609,7 +9606,7 @@
       <c r="F66" s="4">
         <v>0</v>
       </c>
-      <c r="H66" s="48">
+      <c r="H66" s="47">
         <v>70</v>
       </c>
       <c r="I66" s="4" t="s">
@@ -9635,7 +9632,7 @@
       <c r="F67" s="4">
         <v>0</v>
       </c>
-      <c r="H67" s="48">
+      <c r="H67" s="47">
         <v>71</v>
       </c>
       <c r="I67" s="4" t="s">
@@ -9658,10 +9655,10 @@
       <c r="E68" s="4">
         <v>0</v>
       </c>
-      <c r="F68" s="56">
+      <c r="F68" s="55">
         <v>99999999999</v>
       </c>
-      <c r="G68" s="56"/>
+      <c r="G68" s="55"/>
       <c r="I68" s="10" t="s">
         <v>236</v>
       </c>
@@ -9688,7 +9685,7 @@
       <c r="G69" s="4">
         <v>100000000</v>
       </c>
-      <c r="H69" s="48">
+      <c r="H69" s="47">
         <v>72</v>
       </c>
       <c r="I69" s="4" t="s">
@@ -9742,7 +9739,7 @@
         <v>0</v>
       </c>
       <c r="G71" s="33"/>
-      <c r="H71" s="57">
+      <c r="H71" s="56">
         <v>88</v>
       </c>
       <c r="I71" s="33" t="s">
@@ -9769,7 +9766,7 @@
         <v>1</v>
       </c>
       <c r="G72" s="33"/>
-      <c r="H72" s="57">
+      <c r="H72" s="56">
         <v>89</v>
       </c>
       <c r="I72" s="33" t="s">
@@ -9796,7 +9793,7 @@
         <v>1</v>
       </c>
       <c r="G73" s="33"/>
-      <c r="H73" s="57">
+      <c r="H73" s="56">
         <v>90</v>
       </c>
       <c r="I73" s="33" t="s">
@@ -9823,7 +9820,7 @@
         <v>1</v>
       </c>
       <c r="G74" s="33"/>
-      <c r="H74" s="57">
+      <c r="H74" s="56">
         <v>91</v>
       </c>
       <c r="I74" s="33" t="s">
@@ -9850,7 +9847,7 @@
         <v>10</v>
       </c>
       <c r="G75" s="33"/>
-      <c r="H75" s="57"/>
+      <c r="H75" s="56"/>
       <c r="I75" s="33"/>
     </row>
     <row r="76" s="40" customFormat="1" spans="1:9">
@@ -9873,7 +9870,7 @@
         <v>10</v>
       </c>
       <c r="G76" s="33"/>
-      <c r="H76" s="57"/>
+      <c r="H76" s="56"/>
       <c r="I76" s="33"/>
     </row>
     <row r="77" s="40" customFormat="1" spans="1:9">
@@ -9898,7 +9895,7 @@
       <c r="G77" s="33">
         <v>500000000</v>
       </c>
-      <c r="H77" s="57">
+      <c r="H77" s="56">
         <v>92</v>
       </c>
       <c r="I77" s="33" t="s">
@@ -9927,7 +9924,7 @@
       <c r="G78" s="33">
         <v>2000000000</v>
       </c>
-      <c r="H78" s="57">
+      <c r="H78" s="56">
         <v>93</v>
       </c>
       <c r="I78" s="33" t="s">
@@ -9935,10 +9932,10 @@
       </c>
     </row>
     <row r="79" s="3" customFormat="1" spans="1:9">
-      <c r="A79" s="58">
+      <c r="A79" s="57">
         <v>78</v>
       </c>
-      <c r="B79" s="58">
+      <c r="B79" s="57">
         <v>78</v>
       </c>
       <c r="C79" s="41"/>
@@ -9950,7 +9947,7 @@
         <v>50000</v>
       </c>
       <c r="G79" s="8"/>
-      <c r="H79" s="59">
+      <c r="H79" s="58">
         <v>94</v>
       </c>
       <c r="I79" s="8" t="s">
@@ -9958,10 +9955,10 @@
       </c>
     </row>
     <row r="80" s="3" customFormat="1" spans="1:9">
-      <c r="A80" s="58">
+      <c r="A80" s="57">
         <v>79</v>
       </c>
-      <c r="B80" s="58">
+      <c r="B80" s="57">
         <v>79</v>
       </c>
       <c r="C80" s="41"/>
@@ -9973,7 +9970,7 @@
         <v>500000</v>
       </c>
       <c r="G80" s="8"/>
-      <c r="H80" s="59">
+      <c r="H80" s="58">
         <v>95</v>
       </c>
       <c r="I80" s="8" t="s">
@@ -9981,10 +9978,10 @@
       </c>
     </row>
     <row r="81" s="3" customFormat="1" spans="1:9">
-      <c r="A81" s="58">
+      <c r="A81" s="57">
         <v>80</v>
       </c>
-      <c r="B81" s="58">
+      <c r="B81" s="57">
         <v>80</v>
       </c>
       <c r="C81" s="41"/>
@@ -9996,7 +9993,7 @@
         <v>2000000</v>
       </c>
       <c r="G81" s="8"/>
-      <c r="H81" s="59">
+      <c r="H81" s="58">
         <v>96</v>
       </c>
       <c r="I81" s="41" t="s">
@@ -10025,7 +10022,7 @@
       <c r="G82" s="20">
         <v>500000000</v>
       </c>
-      <c r="H82" s="60">
+      <c r="H82" s="59">
         <v>97</v>
       </c>
       <c r="I82" s="44" t="s">
@@ -10052,7 +10049,7 @@
       <c r="G83" s="21">
         <v>1000000000</v>
       </c>
-      <c r="H83" s="61">
+      <c r="H83" s="60">
         <v>98</v>
       </c>
       <c r="I83" s="21" t="s">
@@ -10079,7 +10076,7 @@
       <c r="G84" s="21">
         <v>5000000000</v>
       </c>
-      <c r="H84" s="61">
+      <c r="H84" s="60">
         <v>99</v>
       </c>
       <c r="I84" s="21" t="s">
@@ -10106,7 +10103,7 @@
       <c r="G85" s="21">
         <v>20000000000</v>
       </c>
-      <c r="H85" s="61">
+      <c r="H85" s="60">
         <v>100</v>
       </c>
       <c r="I85" s="21" t="s">
@@ -10247,7 +10244,7 @@
         <v>50000</v>
       </c>
       <c r="G91" s="8"/>
-      <c r="H91" s="59">
+      <c r="H91" s="58">
         <v>107</v>
       </c>
       <c r="I91" s="8" t="s">
@@ -10270,7 +10267,7 @@
         <v>500000</v>
       </c>
       <c r="G92" s="8"/>
-      <c r="H92" s="59">
+      <c r="H92" s="58">
         <v>108</v>
       </c>
       <c r="I92" s="8" t="s">
@@ -10293,7 +10290,7 @@
         <v>2000000</v>
       </c>
       <c r="G93" s="8"/>
-      <c r="H93" s="59">
+      <c r="H93" s="58">
         <v>109</v>
       </c>
       <c r="I93" s="41" t="s">
@@ -10356,7 +10353,7 @@
       <c r="F96" s="4">
         <v>30000</v>
       </c>
-      <c r="H96" s="48">
+      <c r="H96" s="47">
         <v>120</v>
       </c>
       <c r="I96" s="10" t="s">
@@ -10367,20 +10364,20 @@
       <c r="A97" s="4">
         <v>96</v>
       </c>
-      <c r="B97" s="62">
+      <c r="B97" s="61">
         <v>96</v>
       </c>
-      <c r="C97" s="63"/>
-      <c r="D97" s="63"/>
-      <c r="E97" s="63"/>
-      <c r="F97" s="64" t="s">
+      <c r="C97" s="62"/>
+      <c r="D97" s="62"/>
+      <c r="E97" s="62"/>
+      <c r="F97" s="63" t="s">
         <v>252</v>
       </c>
-      <c r="G97" s="63"/>
-      <c r="H97" s="65" t="s">
+      <c r="G97" s="62"/>
+      <c r="H97" s="64" t="s">
         <v>253</v>
       </c>
-      <c r="I97" s="64" t="s">
+      <c r="I97" s="63" t="s">
         <v>215</v>
       </c>
       <c r="J97" s="45"/>
@@ -10395,10 +10392,10 @@
       <c r="D98" s="4">
         <v>96</v>
       </c>
-      <c r="F98" s="66" t="s">
+      <c r="F98" s="65" t="s">
         <v>254</v>
       </c>
-      <c r="H98" s="66" t="s">
+      <c r="H98" s="65" t="s">
         <v>255</v>
       </c>
       <c r="I98" s="10" t="s">
@@ -10475,11 +10472,11 @@
       <c r="C102" s="20"/>
       <c r="D102" s="20"/>
       <c r="E102" s="20"/>
-      <c r="F102" s="67" t="s">
+      <c r="F102" s="66" t="s">
         <v>261</v>
       </c>
-      <c r="G102" s="67"/>
-      <c r="H102" s="60" t="s">
+      <c r="G102" s="66"/>
+      <c r="H102" s="59" t="s">
         <v>262</v>
       </c>
       <c r="I102" s="20" t="s">
@@ -10496,11 +10493,11 @@
       <c r="C103" s="20"/>
       <c r="D103" s="20"/>
       <c r="E103" s="20"/>
-      <c r="F103" s="67" t="s">
+      <c r="F103" s="66" t="s">
         <v>261</v>
       </c>
-      <c r="G103" s="67"/>
-      <c r="H103" s="60" t="s">
+      <c r="G103" s="66"/>
+      <c r="H103" s="59" t="s">
         <v>263</v>
       </c>
       <c r="I103" s="20" t="s">
@@ -10517,18 +10514,18 @@
       <c r="C104" s="20"/>
       <c r="D104" s="20"/>
       <c r="E104" s="20"/>
-      <c r="F104" s="67" t="s">
+      <c r="F104" s="66" t="s">
         <v>261</v>
       </c>
-      <c r="G104" s="67"/>
-      <c r="H104" s="60" t="s">
+      <c r="G104" s="66"/>
+      <c r="H104" s="59" t="s">
         <v>264</v>
       </c>
       <c r="I104" s="20" t="s">
         <v>215</v>
       </c>
     </row>
-    <row r="105" s="47" customFormat="1" spans="1:9">
+    <row r="105" s="46" customFormat="1" spans="1:9">
       <c r="A105" s="30">
         <v>104</v>
       </c>
@@ -10544,14 +10541,14 @@
         <v>1</v>
       </c>
       <c r="G105" s="21"/>
-      <c r="H105" s="61" t="s">
+      <c r="H105" s="60" t="s">
         <v>265</v>
       </c>
       <c r="I105" s="21" t="s">
         <v>215</v>
       </c>
     </row>
-    <row r="106" s="47" customFormat="1" spans="1:9">
+    <row r="106" s="46" customFormat="1" spans="1:9">
       <c r="A106" s="30">
         <v>105</v>
       </c>
@@ -10567,14 +10564,14 @@
         <v>1</v>
       </c>
       <c r="G106" s="21"/>
-      <c r="H106" s="61" t="s">
+      <c r="H106" s="60" t="s">
         <v>265</v>
       </c>
       <c r="I106" s="21" t="s">
         <v>215</v>
       </c>
     </row>
-    <row r="107" s="47" customFormat="1" spans="1:9">
+    <row r="107" s="46" customFormat="1" spans="1:9">
       <c r="A107" s="30">
         <v>106</v>
       </c>
@@ -10590,14 +10587,14 @@
         <v>300000</v>
       </c>
       <c r="G107" s="21"/>
-      <c r="H107" s="61" t="s">
+      <c r="H107" s="60" t="s">
         <v>265</v>
       </c>
       <c r="I107" s="21" t="s">
         <v>215</v>
       </c>
     </row>
-    <row r="108" s="47" customFormat="1" spans="1:9">
+    <row r="108" s="46" customFormat="1" spans="1:9">
       <c r="A108" s="30">
         <v>107</v>
       </c>
@@ -10613,14 +10610,14 @@
         <v>100</v>
       </c>
       <c r="G108" s="21"/>
-      <c r="H108" s="61" t="s">
+      <c r="H108" s="60" t="s">
         <v>265</v>
       </c>
       <c r="I108" s="21" t="s">
         <v>215</v>
       </c>
     </row>
-    <row r="109" s="47" customFormat="1" spans="1:9">
+    <row r="109" s="46" customFormat="1" spans="1:9">
       <c r="A109" s="30">
         <v>108</v>
       </c>
@@ -10636,14 +10633,14 @@
         <v>500</v>
       </c>
       <c r="G109" s="21"/>
-      <c r="H109" s="61" t="s">
+      <c r="H109" s="60" t="s">
         <v>265</v>
       </c>
       <c r="I109" s="21" t="s">
         <v>215</v>
       </c>
     </row>
-    <row r="110" s="47" customFormat="1" spans="1:9">
+    <row r="110" s="46" customFormat="1" spans="1:9">
       <c r="A110" s="30">
         <v>109</v>
       </c>
@@ -10659,14 +10656,14 @@
         <v>15</v>
       </c>
       <c r="G110" s="21"/>
-      <c r="H110" s="61" t="s">
+      <c r="H110" s="60" t="s">
         <v>265</v>
       </c>
       <c r="I110" s="21" t="s">
         <v>215</v>
       </c>
     </row>
-    <row r="111" s="47" customFormat="1" spans="1:9">
+    <row r="111" s="46" customFormat="1" spans="1:9">
       <c r="A111" s="30">
         <v>110</v>
       </c>
@@ -10682,14 +10679,14 @@
         <v>15</v>
       </c>
       <c r="G111" s="21"/>
-      <c r="H111" s="61" t="s">
+      <c r="H111" s="60" t="s">
         <v>265</v>
       </c>
       <c r="I111" s="21" t="s">
         <v>215</v>
       </c>
     </row>
-    <row r="112" s="47" customFormat="1" spans="1:9">
+    <row r="112" s="46" customFormat="1" spans="1:9">
       <c r="A112" s="30">
         <v>111</v>
       </c>
@@ -10705,14 +10702,14 @@
         <v>1</v>
       </c>
       <c r="G112" s="21"/>
-      <c r="H112" s="61" t="s">
+      <c r="H112" s="60" t="s">
         <v>265</v>
       </c>
       <c r="I112" s="21" t="s">
         <v>215</v>
       </c>
     </row>
-    <row r="113" s="47" customFormat="1" spans="1:9">
+    <row r="113" s="46" customFormat="1" spans="1:9">
       <c r="A113" s="30">
         <v>112</v>
       </c>
@@ -10728,14 +10725,14 @@
         <v>3</v>
       </c>
       <c r="G113" s="21"/>
-      <c r="H113" s="61" t="s">
+      <c r="H113" s="60" t="s">
         <v>266</v>
       </c>
       <c r="I113" s="21" t="s">
         <v>215</v>
       </c>
     </row>
-    <row r="114" s="47" customFormat="1" spans="1:9">
+    <row r="114" s="46" customFormat="1" spans="1:9">
       <c r="A114" s="30">
         <v>113</v>
       </c>
@@ -10751,14 +10748,14 @@
         <v>1</v>
       </c>
       <c r="G114" s="21"/>
-      <c r="H114" s="61" t="s">
+      <c r="H114" s="60" t="s">
         <v>267</v>
       </c>
       <c r="I114" s="21" t="s">
         <v>215</v>
       </c>
     </row>
-    <row r="115" s="47" customFormat="1" spans="1:9">
+    <row r="115" s="46" customFormat="1" spans="1:9">
       <c r="A115" s="30">
         <v>114</v>
       </c>
@@ -10774,14 +10771,14 @@
         <v>10</v>
       </c>
       <c r="G115" s="21"/>
-      <c r="H115" s="61" t="s">
+      <c r="H115" s="60" t="s">
         <v>267</v>
       </c>
       <c r="I115" s="21" t="s">
         <v>215</v>
       </c>
     </row>
-    <row r="116" s="47" customFormat="1" spans="1:9">
+    <row r="116" s="46" customFormat="1" spans="1:9">
       <c r="A116" s="30">
         <v>115</v>
       </c>
@@ -10797,14 +10794,14 @@
         <v>12000</v>
       </c>
       <c r="G116" s="21"/>
-      <c r="H116" s="61" t="s">
+      <c r="H116" s="60" t="s">
         <v>267</v>
       </c>
       <c r="I116" s="21" t="s">
         <v>215</v>
       </c>
     </row>
-    <row r="117" s="47" customFormat="1" spans="1:9">
+    <row r="117" s="46" customFormat="1" spans="1:9">
       <c r="A117" s="30">
         <v>116</v>
       </c>
@@ -10820,14 +10817,14 @@
         <v>300</v>
       </c>
       <c r="G117" s="21"/>
-      <c r="H117" s="61" t="s">
+      <c r="H117" s="60" t="s">
         <v>267</v>
       </c>
       <c r="I117" s="21" t="s">
         <v>215</v>
       </c>
     </row>
-    <row r="118" s="47" customFormat="1" spans="1:9">
+    <row r="118" s="46" customFormat="1" spans="1:9">
       <c r="A118" s="30">
         <v>117</v>
       </c>
@@ -10843,14 +10840,14 @@
         <v>1000000</v>
       </c>
       <c r="G118" s="21"/>
-      <c r="H118" s="61" t="s">
+      <c r="H118" s="60" t="s">
         <v>267</v>
       </c>
       <c r="I118" s="21" t="s">
         <v>215</v>
       </c>
     </row>
-    <row r="119" s="47" customFormat="1" spans="1:9">
+    <row r="119" s="46" customFormat="1" spans="1:9">
       <c r="A119" s="30">
         <v>118</v>
       </c>
@@ -10866,7 +10863,7 @@
         <v>100</v>
       </c>
       <c r="G119" s="21"/>
-      <c r="H119" s="61" t="s">
+      <c r="H119" s="60" t="s">
         <v>267</v>
       </c>
       <c r="I119" s="21" t="s">
@@ -10886,7 +10883,7 @@
       <c r="F120" s="4">
         <v>1200000</v>
       </c>
-      <c r="H120" s="48" t="s">
+      <c r="H120" s="47" t="s">
         <v>268</v>
       </c>
       <c r="I120" s="10" t="s">
@@ -10906,7 +10903,7 @@
       <c r="F121" s="4">
         <v>800000</v>
       </c>
-      <c r="H121" s="48" t="s">
+      <c r="H121" s="47" t="s">
         <v>269</v>
       </c>
       <c r="I121" s="10" t="s">
@@ -10926,7 +10923,7 @@
       <c r="F122" s="4">
         <v>300000</v>
       </c>
-      <c r="H122" s="48" t="s">
+      <c r="H122" s="47" t="s">
         <v>270</v>
       </c>
       <c r="I122" s="10" t="s">
@@ -10946,7 +10943,7 @@
       <c r="F123" s="4">
         <v>200000</v>
       </c>
-      <c r="H123" s="48" t="s">
+      <c r="H123" s="47" t="s">
         <v>271</v>
       </c>
       <c r="I123" s="10" t="s">
@@ -10966,7 +10963,7 @@
       <c r="F124" s="4">
         <v>600</v>
       </c>
-      <c r="H124" s="48" t="s">
+      <c r="H124" s="47" t="s">
         <v>272</v>
       </c>
       <c r="I124" s="10" t="s">
@@ -10986,7 +10983,7 @@
       <c r="F125" s="4">
         <v>200000</v>
       </c>
-      <c r="H125" s="48" t="s">
+      <c r="H125" s="47" t="s">
         <v>273</v>
       </c>
       <c r="I125" s="10" t="s">
@@ -11005,10 +11002,10 @@
   <sheetPr codeName="Sheet3"/>
   <dimension ref="A1:I165"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A137" activePane="bottomLeft" state="frozen"/>
       <selection/>
-      <selection pane="bottomLeft" activeCell="A165" sqref="A165"/>
+      <selection pane="bottomLeft" activeCell="D167" sqref="D167"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
@@ -13397,7 +13394,7 @@
       <c r="C148" s="21" t="s">
         <v>278</v>
       </c>
-      <c r="D148" s="46">
+      <c r="D148" s="4">
         <v>0</v>
       </c>
     </row>
@@ -13411,7 +13408,7 @@
       <c r="C149" s="21" t="s">
         <v>295</v>
       </c>
-      <c r="D149" s="46">
+      <c r="D149" s="4">
         <v>0</v>
       </c>
     </row>
@@ -13425,7 +13422,7 @@
       <c r="C150" s="21" t="s">
         <v>296</v>
       </c>
-      <c r="D150" s="46">
+      <c r="D150" s="4">
         <v>0</v>
       </c>
     </row>
@@ -13439,7 +13436,7 @@
       <c r="C151" s="21" t="s">
         <v>297</v>
       </c>
-      <c r="D151" s="46">
+      <c r="D151" s="4">
         <v>0</v>
       </c>
     </row>
@@ -13453,7 +13450,7 @@
       <c r="C152" s="21" t="s">
         <v>298</v>
       </c>
-      <c r="D152" s="46">
+      <c r="D152" s="4">
         <v>0</v>
       </c>
     </row>
@@ -13467,7 +13464,7 @@
       <c r="C153" s="21" t="s">
         <v>299</v>
       </c>
-      <c r="D153" s="46">
+      <c r="D153" s="4">
         <v>0</v>
       </c>
     </row>
@@ -13481,7 +13478,7 @@
       <c r="C154" s="21" t="s">
         <v>300</v>
       </c>
-      <c r="D154" s="46">
+      <c r="D154" s="4">
         <v>0</v>
       </c>
     </row>
@@ -13495,7 +13492,7 @@
       <c r="C155" s="21" t="s">
         <v>301</v>
       </c>
-      <c r="D155" s="46">
+      <c r="D155" s="4">
         <v>0</v>
       </c>
     </row>
@@ -13509,7 +13506,7 @@
       <c r="C156" s="21" t="s">
         <v>302</v>
       </c>
-      <c r="D156" s="46">
+      <c r="D156" s="4">
         <v>0</v>
       </c>
     </row>
@@ -13523,7 +13520,7 @@
       <c r="C157" s="21" t="s">
         <v>303</v>
       </c>
-      <c r="D157" s="46">
+      <c r="D157" s="4">
         <v>0</v>
       </c>
     </row>
@@ -13537,7 +13534,7 @@
       <c r="C158" s="21" t="s">
         <v>245</v>
       </c>
-      <c r="D158" s="46">
+      <c r="D158" s="4">
         <v>0</v>
       </c>
     </row>
@@ -13551,7 +13548,7 @@
       <c r="C159" s="21" t="s">
         <v>237</v>
       </c>
-      <c r="D159" s="46">
+      <c r="D159" s="4">
         <v>0</v>
       </c>
     </row>
@@ -13565,7 +13562,7 @@
       <c r="C160" s="21" t="s">
         <v>304</v>
       </c>
-      <c r="D160" s="46">
+      <c r="D160" s="4">
         <v>0</v>
       </c>
     </row>
@@ -13579,7 +13576,7 @@
       <c r="C161" s="21" t="s">
         <v>305</v>
       </c>
-      <c r="D161" s="46">
+      <c r="D161" s="4">
         <v>0</v>
       </c>
     </row>
@@ -13593,7 +13590,7 @@
       <c r="C162" s="21" t="s">
         <v>306</v>
       </c>
-      <c r="D162" s="46">
+      <c r="D162" s="4">
         <v>0</v>
       </c>
     </row>
@@ -13607,7 +13604,7 @@
       <c r="C163" s="21" t="s">
         <v>307</v>
       </c>
-      <c r="D163" s="46">
+      <c r="D163" s="4">
         <v>0</v>
       </c>
     </row>
@@ -13621,7 +13618,7 @@
       <c r="C164" s="4" t="s">
         <v>290</v>
       </c>
-      <c r="D164" s="46">
+      <c r="D164" s="4">
         <v>0</v>
       </c>
     </row>
@@ -13635,8 +13632,8 @@
       <c r="C165" s="31" t="s">
         <v>230</v>
       </c>
-      <c r="D165" s="46">
-        <v>0</v>
+      <c r="D165" s="4">
+        <v>38</v>
       </c>
     </row>
   </sheetData>
@@ -13652,12 +13649,12 @@
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr codeName="Sheet4"/>
-  <dimension ref="A1:F69"/>
+  <dimension ref="A1:F70"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A44" activePane="bottomLeft" state="frozen"/>
       <selection/>
-      <selection pane="bottomLeft" activeCell="B70" sqref="B70"/>
+      <selection pane="bottomLeft" activeCell="D74" sqref="D74"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" outlineLevelCol="5"/>
@@ -14849,6 +14846,23 @@
         <v>345</v>
       </c>
       <c r="E69" s="4">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="70" spans="1:5">
+      <c r="A70" s="14">
+        <v>69</v>
+      </c>
+      <c r="B70" s="4">
+        <v>38</v>
+      </c>
+      <c r="C70" s="4" t="s">
+        <v>336</v>
+      </c>
+      <c r="D70" s="4" t="s">
+        <v>337</v>
+      </c>
+      <c r="E70" s="4">
         <v>2</v>
       </c>
     </row>
